--- a/nodes_source_analyses/energy/energy_power_solar_csp_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_solar_csp_solar_radiation.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -683,9 +691,6 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -989,17 +994,21 @@
   <si>
     <t>http://refman.et-model.com/publications/1923</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1214,11 +1223,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1871,17 +1875,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1937,28 +1941,28 @@
     <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1976,7 +1980,7 @@
     <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1984,7 +1988,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="31" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2004,7 +2008,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2015,10 +2019,10 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2036,18 +2040,18 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="35" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="34" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2096,31 +2100,31 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2369,80 +2373,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2674,7 +2613,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3113,34 +3052,34 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="49" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="34"/>
+    <col min="1" max="1" width="3.42578125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="47" customFormat="1">
+    <row r="1" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45"/>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="48"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>20</v>
@@ -3149,7 +3088,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>109</v>
@@ -3158,7 +3097,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>22</v>
@@ -3167,29 +3106,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="114" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="115"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="116"/>
       <c r="C10" s="117"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="116" t="s">
         <v>95</v>
@@ -3198,33 +3137,33 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="116"/>
       <c r="C12" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="116"/>
       <c r="C13" s="119" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="116"/>
       <c r="C14" s="117" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="116"/>
       <c r="C15" s="117"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="116" t="s">
         <v>100</v>
@@ -3233,49 +3172,49 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="116"/>
       <c r="C17" s="121" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="116"/>
       <c r="C18" s="122" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="116"/>
       <c r="C19" s="123" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="124"/>
       <c r="C20" s="125" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="124"/>
       <c r="C21" s="126" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="124"/>
       <c r="C22" s="127" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="124"/>
       <c r="C23" s="128" t="s">
@@ -3285,41 +3224,36 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="47" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="4" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="4"/>
+    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
@@ -3329,9 +3263,9 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="178" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="C2" s="179"/>
       <c r="D2" s="179"/>
@@ -3341,7 +3275,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="181"/>
       <c r="C3" s="182"/>
       <c r="D3" s="182"/>
@@ -3351,7 +3285,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="181"/>
       <c r="C4" s="182"/>
       <c r="D4" s="182"/>
@@ -3361,7 +3295,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="184"/>
       <c r="C5" s="185"/>
       <c r="D5" s="185"/>
@@ -3371,7 +3305,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -3381,7 +3315,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="31"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -3392,7 +3326,7 @@
       <c r="I7" s="30"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:11" s="5" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="42"/>
       <c r="C8" s="26" t="s">
         <v>36</v>
@@ -3413,7 +3347,7 @@
       </c>
       <c r="J8" s="148"/>
     </row>
-    <row r="9" spans="2:11" s="5" customFormat="1" ht="18">
+    <row r="9" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="43"/>
       <c r="C9" s="23"/>
       <c r="D9" s="51"/>
@@ -3424,10 +3358,10 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="43"/>
       <c r="C10" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="23"/>
@@ -3437,7 +3371,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43"/>
       <c r="C11" s="54" t="s">
         <v>37</v>
@@ -3456,7 +3390,7 @@
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="36"/>
       <c r="C12" s="54" t="s">
         <v>39</v>
@@ -3476,7 +3410,7 @@
       <c r="J12" s="149"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36"/>
       <c r="C13" s="53" t="s">
         <v>40</v>
@@ -3496,7 +3430,7 @@
       <c r="J13" s="149"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36"/>
       <c r="C14" s="53" t="s">
         <v>41</v>
@@ -3516,7 +3450,7 @@
       <c r="J14" s="149"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36"/>
       <c r="C15" s="53" t="s">
         <v>42</v>
@@ -3536,7 +3470,7 @@
       <c r="J15" s="149"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36"/>
       <c r="C16" s="53" t="s">
         <v>12</v>
@@ -3556,7 +3490,7 @@
       <c r="J16" s="149"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36"/>
       <c r="C17" s="55" t="s">
         <v>45</v>
@@ -3576,7 +3510,7 @@
       <c r="J17" s="150"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="18" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="C18" s="55" t="s">
         <v>46</v>
@@ -3596,7 +3530,7 @@
       <c r="J18" s="150"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36"/>
       <c r="C19" s="55" t="s">
         <v>47</v>
@@ -3618,7 +3552,7 @@
       </c>
       <c r="J19" s="149"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36"/>
       <c r="C20" s="55" t="s">
         <v>48</v>
@@ -3639,7 +3573,7 @@
       </c>
       <c r="J20" s="149"/>
     </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36"/>
       <c r="C21" s="55" t="s">
         <v>49</v>
@@ -3660,7 +3594,7 @@
       </c>
       <c r="J21" s="149"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="36"/>
       <c r="C22" s="55" t="s">
         <v>62</v>
@@ -3681,7 +3615,7 @@
       </c>
       <c r="J22" s="149"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36"/>
       <c r="C23" s="55" t="s">
         <v>50</v>
@@ -3703,7 +3637,7 @@
       </c>
       <c r="J23" s="149"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="36"/>
       <c r="C24" s="55" t="s">
         <v>51</v>
@@ -3724,7 +3658,7 @@
       </c>
       <c r="J24" s="149"/>
     </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36"/>
       <c r="C25" s="55" t="s">
         <v>52</v>
@@ -3745,7 +3679,7 @@
       </c>
       <c r="J25" s="149"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
       <c r="C26" s="139"/>
       <c r="D26" s="140"/>
@@ -3756,10 +3690,10 @@
       <c r="I26" s="34"/>
       <c r="J26" s="149"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36"/>
       <c r="C27" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="140"/>
       <c r="E27" s="141"/>
@@ -3769,7 +3703,7 @@
       <c r="I27" s="34"/>
       <c r="J27" s="149"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36"/>
       <c r="C28" s="55" t="s">
         <v>53</v>
@@ -3787,11 +3721,11 @@
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="171" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J28" s="151"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="36"/>
       <c r="C29" s="55" t="s">
         <v>54</v>
@@ -3812,7 +3746,7 @@
       </c>
       <c r="J29" s="151"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
       <c r="C30" s="55" t="s">
         <v>14</v>
@@ -3833,7 +3767,7 @@
       </c>
       <c r="J30" s="149"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="36"/>
       <c r="C31" s="55" t="s">
         <v>55</v>
@@ -3854,7 +3788,7 @@
       </c>
       <c r="J31" s="149"/>
     </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="36"/>
       <c r="C32" s="55" t="s">
         <v>56</v>
@@ -3872,11 +3806,11 @@
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="160" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J32" s="149"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="36"/>
       <c r="C33" s="55" t="s">
         <v>57</v>
@@ -3898,7 +3832,7 @@
       </c>
       <c r="J33" s="149"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="36"/>
       <c r="C34" s="55" t="s">
         <v>58</v>
@@ -3919,7 +3853,7 @@
       </c>
       <c r="J34" s="149"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="36"/>
       <c r="C35" s="55" t="s">
         <v>61</v>
@@ -3940,7 +3874,7 @@
       </c>
       <c r="J35" s="149"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="36"/>
       <c r="C36" s="55" t="s">
         <v>44</v>
@@ -3959,7 +3893,7 @@
       </c>
       <c r="J36" s="149"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="36"/>
       <c r="C37" s="139"/>
       <c r="D37" s="140"/>
@@ -3970,7 +3904,7 @@
       <c r="I37" s="143"/>
       <c r="J37" s="149"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="36"/>
       <c r="C38" s="23" t="s">
         <v>9</v>
@@ -3983,7 +3917,7 @@
       <c r="I38" s="143"/>
       <c r="J38" s="149"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="36"/>
       <c r="C39" s="55" t="s">
         <v>59</v>
@@ -4001,11 +3935,11 @@
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J39" s="149"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="36"/>
       <c r="C40" s="55" t="s">
         <v>60</v>
@@ -4023,11 +3957,11 @@
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J40" s="149"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="36"/>
       <c r="C41" s="53" t="s">
         <v>43</v>
@@ -4045,11 +3979,11 @@
       </c>
       <c r="H41" s="32"/>
       <c r="I41" s="171" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J41" s="149"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="145"/>
       <c r="C42" s="144" t="s">
         <v>41</v>
@@ -4068,7 +4002,7 @@
       </c>
       <c r="J42" s="149"/>
     </row>
-    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="39"/>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
@@ -4079,7 +4013,7 @@
       <c r="I43" s="40"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
       <c r="D44" s="41"/>
@@ -4089,7 +4023,7 @@
       <c r="H44" s="41"/>
       <c r="I44" s="41"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -4099,7 +4033,7 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -4109,7 +4043,7 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -4119,7 +4053,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -4129,7 +4063,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -4139,7 +4073,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -4149,7 +4083,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -4159,7 +4093,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -4169,7 +4103,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -4179,7 +4113,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -4189,7 +4123,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -4199,7 +4133,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -4215,43 +4149,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4266,30 +4163,29 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="80" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="80" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="80" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="80" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="80" customWidth="1"/>
-    <col min="6" max="6" width="3.125" style="80" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="80" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="80" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="80" customWidth="1"/>
-    <col min="10" max="10" width="2.375" style="80" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="80" customWidth="1"/>
-    <col min="12" max="12" width="2.375" style="80" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="80" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="80" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="80" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="80" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="80" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="80" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="80" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="80" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="80" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="80" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="80" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" style="80" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="80" customWidth="1"/>
     <col min="14" max="14" width="3" style="80" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="80" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="80" customWidth="1"/>
-    <col min="17" max="17" width="44.5" style="80" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="80"/>
+    <col min="15" max="15" width="10.85546875" style="80" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="80" customWidth="1"/>
+    <col min="17" max="17" width="44.42578125" style="80" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="82"/>
       <c r="C2" s="83"/>
       <c r="D2" s="83"/>
@@ -4307,7 +4203,7 @@
       <c r="P2" s="83"/>
       <c r="Q2" s="83"/>
     </row>
-    <row r="3" spans="2:17" s="44" customFormat="1">
+    <row r="3" spans="2:17" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="136" t="s">
         <v>125</v>
@@ -4322,7 +4218,7 @@
       </c>
       <c r="H3" s="136"/>
       <c r="I3" s="136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J3" s="136"/>
       <c r="K3" s="136" t="s">
@@ -4338,10 +4234,10 @@
       </c>
       <c r="P3" s="136"/>
       <c r="Q3" s="136" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="85"/>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
@@ -4359,7 +4255,7 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
     </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+    <row r="5" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="85"/>
       <c r="C5" s="52" t="s">
         <v>121</v>
@@ -4379,7 +4275,7 @@
       <c r="P5" s="70"/>
       <c r="Q5" s="68"/>
     </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+    <row r="6" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="85"/>
       <c r="C6" s="66" t="s">
         <v>32</v>
@@ -4407,7 +4303,7 @@
       <c r="P6" s="70"/>
       <c r="Q6" s="68"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="85"/>
       <c r="C7" s="96"/>
       <c r="D7" s="96"/>
@@ -4425,7 +4321,7 @@
       <c r="P7" s="70"/>
       <c r="Q7" s="68"/>
     </row>
-    <row r="8" spans="2:17" ht="16" thickBot="1">
+    <row r="8" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="85"/>
       <c r="C8" s="52" t="s">
         <v>9</v>
@@ -4445,7 +4341,7 @@
       <c r="P8" s="70"/>
       <c r="Q8" s="68"/>
     </row>
-    <row r="9" spans="2:17" ht="16" thickBot="1">
+    <row r="9" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="85"/>
       <c r="C9" s="135" t="s">
         <v>122</v>
@@ -4475,10 +4371,10 @@
       </c>
       <c r="P9" s="70"/>
       <c r="Q9" s="170" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="16" thickBot="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="85"/>
       <c r="C10" s="98" t="s">
         <v>1</v>
@@ -4507,7 +4403,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="16" thickBot="1">
+    <row r="11" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="85"/>
       <c r="C11" s="101" t="s">
         <v>7</v>
@@ -4534,7 +4430,7 @@
       <c r="P11" s="70"/>
       <c r="Q11" s="68"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="85"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
@@ -4552,7 +4448,7 @@
       <c r="P12" s="70"/>
       <c r="Q12" s="68"/>
     </row>
-    <row r="13" spans="2:17" ht="16" thickBot="1">
+    <row r="13" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="85"/>
       <c r="C13" s="21" t="s">
         <v>115</v>
@@ -4571,10 +4467,10 @@
       <c r="O13" s="70"/>
       <c r="P13" s="70"/>
       <c r="Q13" s="173" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="16" thickBot="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="85"/>
       <c r="C14" s="133" t="s">
         <v>123</v>
@@ -4598,10 +4494,10 @@
       <c r="O14" s="104"/>
       <c r="P14" s="97"/>
       <c r="Q14" s="170" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="16" thickBot="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="85"/>
       <c r="C15" s="134" t="s">
         <v>124</v>
@@ -4634,10 +4530,10 @@
       <c r="O15" s="97"/>
       <c r="P15" s="97"/>
       <c r="Q15" s="173" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="17" thickBot="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="85"/>
       <c r="C16" s="133" t="s">
         <v>118</v>
@@ -4668,7 +4564,7 @@
       <c r="P16" s="70"/>
       <c r="Q16" s="152"/>
     </row>
-    <row r="17" spans="2:17" ht="17" thickBot="1">
+    <row r="17" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="85"/>
       <c r="C17" s="134" t="s">
         <v>85</v>
@@ -4695,10 +4591,10 @@
       </c>
       <c r="P17" s="70"/>
       <c r="Q17" s="158" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="17" thickBot="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="85"/>
       <c r="C18" s="133" t="s">
         <v>117</v>
@@ -4724,10 +4620,10 @@
       </c>
       <c r="P18" s="107"/>
       <c r="Q18" s="158" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="17" thickBot="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="85"/>
       <c r="C19" s="134" t="s">
         <v>119</v>
@@ -4754,10 +4650,10 @@
       </c>
       <c r="P19" s="107"/>
       <c r="Q19" s="158" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="17" thickBot="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="85"/>
       <c r="C20" s="133" t="s">
         <v>120</v>
@@ -4784,10 +4680,10 @@
       </c>
       <c r="P20" s="107"/>
       <c r="Q20" s="158" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="16" thickBot="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="85"/>
       <c r="C21" s="105" t="s">
         <v>116</v>
@@ -4810,13 +4706,13 @@
       <c r="O21" s="107"/>
       <c r="P21" s="107"/>
       <c r="Q21" s="158" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="16" thickBot="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="85"/>
       <c r="C22" s="153" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="113"/>
       <c r="E22" s="65" t="s">
@@ -4837,17 +4733,12 @@
       <c r="O22" s="107"/>
       <c r="P22" s="107"/>
       <c r="Q22" s="152" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4862,22 +4753,22 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="80" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="80" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="80" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="80" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="80" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="80" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="81" customWidth="1"/>
-    <col min="9" max="9" width="38.375" style="81" customWidth="1"/>
-    <col min="10" max="10" width="102.25" style="80" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="80"/>
+    <col min="1" max="1" width="3.42578125" style="80" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="80" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="80" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="80" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="80" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="81" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="81" customWidth="1"/>
+    <col min="10" max="10" width="102.28515625" style="80" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="82"/>
       <c r="C2" s="83"/>
       <c r="D2" s="83"/>
@@ -4888,7 +4779,7 @@
       <c r="I2" s="84"/>
       <c r="J2" s="83"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="85"/>
       <c r="C3" s="23" t="s">
         <v>24</v>
@@ -4901,7 +4792,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="70"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="85"/>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
@@ -4912,7 +4803,7 @@
       <c r="I4" s="73"/>
       <c r="J4" s="70"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="86"/>
       <c r="C5" s="24" t="s">
         <v>33</v>
@@ -4927,19 +4818,19 @@
         <v>34</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="85"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -4950,7 +4841,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="85"/>
       <c r="C7" s="72"/>
       <c r="D7" s="70" t="s">
@@ -4967,13 +4858,13 @@
       </c>
       <c r="H7" s="73"/>
       <c r="I7" s="175" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J7" s="169" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="85"/>
       <c r="C8" s="71" t="s">
         <v>10</v>
@@ -4986,7 +4877,7 @@
       <c r="I8" s="73"/>
       <c r="J8" s="70"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="85"/>
       <c r="C9" s="72"/>
       <c r="D9" s="70"/>
@@ -4997,11 +4888,11 @@
       <c r="I9" s="73"/>
       <c r="J9" s="70"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="85"/>
       <c r="C10" s="72"/>
       <c r="D10" s="169" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="70" t="s">
         <v>90</v>
@@ -5014,13 +4905,13 @@
       </c>
       <c r="H10" s="73"/>
       <c r="I10" s="175" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J10" s="169" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="85"/>
       <c r="C11" s="72" t="s">
         <v>10</v>
@@ -5033,7 +4924,7 @@
       <c r="I11" s="73"/>
       <c r="J11" s="154"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="85"/>
       <c r="C12" s="72" t="s">
         <v>88</v>
@@ -5046,7 +4937,7 @@
       <c r="I12" s="73"/>
       <c r="J12" s="70"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="85"/>
       <c r="C13" s="72" t="s">
         <v>1</v>
@@ -5059,7 +4950,7 @@
       <c r="I13" s="73"/>
       <c r="J13" s="70"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="85"/>
       <c r="C14" s="72" t="s">
         <v>7</v>
@@ -5072,7 +4963,7 @@
       <c r="I14" s="73"/>
       <c r="J14" s="70"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="85"/>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
@@ -5083,7 +4974,7 @@
       <c r="I15" s="75"/>
       <c r="J15" s="72"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="85"/>
       <c r="C16" s="72"/>
       <c r="D16" s="72" t="s">
@@ -5100,13 +4991,13 @@
       </c>
       <c r="H16" s="75"/>
       <c r="I16" s="176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J16" s="172" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="85"/>
       <c r="C17" s="72" t="s">
         <v>10</v>
@@ -5119,7 +5010,7 @@
       <c r="I17" s="75"/>
       <c r="J17" s="72"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="85"/>
       <c r="C18" s="72" t="s">
         <v>92</v>
@@ -5132,7 +5023,7 @@
       <c r="I18" s="73"/>
       <c r="J18" s="87"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="85"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
@@ -5143,7 +5034,7 @@
       <c r="I19" s="73"/>
       <c r="J19" s="87"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="85"/>
       <c r="C20" s="71"/>
       <c r="D20" s="72" t="s">
@@ -5153,20 +5044,20 @@
         <v>90</v>
       </c>
       <c r="F20" s="157" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="157" t="s">
         <v>77</v>
       </c>
       <c r="H20" s="88"/>
       <c r="I20" s="177" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J20" s="172" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="85"/>
       <c r="C21" s="72" t="s">
         <v>11</v>
@@ -5179,7 +5070,7 @@
       <c r="I21" s="87"/>
       <c r="J21" s="87"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="85"/>
       <c r="C22" s="72" t="s">
         <v>93</v>
@@ -5192,7 +5083,7 @@
       <c r="I22" s="73"/>
       <c r="J22" s="72"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
       <c r="C23" s="71" t="s">
         <v>4</v>
@@ -5211,11 +5102,6 @@
   <ignoredErrors>
     <ignoredError sqref="F10 F16:G16 F20:G20 G10 G7" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5227,18 +5113,18 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="156" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="156" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="156" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="156" customWidth="1"/>
     <col min="3" max="3" width="16" style="156" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="156" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="156" customWidth="1"/>
-    <col min="6" max="16384" width="10.625" style="156"/>
+    <col min="4" max="4" width="10.28515625" style="156" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="156" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="156"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1"/>
-    <row r="2" spans="2:14">
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="161"/>
       <c r="C2" s="162"/>
       <c r="D2" s="162"/>
@@ -5253,13 +5139,13 @@
       <c r="M2" s="162"/>
       <c r="N2" s="162"/>
     </row>
-    <row r="3" spans="2:14" s="44" customFormat="1">
+    <row r="3" spans="2:14" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="164"/>
       <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -5272,7 +5158,7 @@
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="163"/>
       <c r="C4" s="154"/>
       <c r="D4" s="154"/>
@@ -5287,7 +5173,7 @@
       <c r="M4" s="154"/>
       <c r="N4" s="154"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="163"/>
       <c r="C5" s="154" t="s">
         <v>82</v>
@@ -5304,10 +5190,10 @@
       <c r="M5" s="154"/>
       <c r="N5" s="154"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="163"/>
       <c r="C6" s="154" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="154"/>
       <c r="E6" s="154"/>
@@ -5321,7 +5207,7 @@
       <c r="M6" s="154"/>
       <c r="N6" s="154"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="163"/>
       <c r="C7" s="154"/>
       <c r="D7" s="154"/>
@@ -5336,16 +5222,16 @@
       <c r="M7" s="154"/>
       <c r="N7" s="154"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="163"/>
       <c r="C8" s="174" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="154">
         <v>65</v>
       </c>
       <c r="E8" s="154" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="154"/>
       <c r="G8" s="154"/>
@@ -5357,14 +5243,14 @@
       <c r="M8" s="154"/>
       <c r="N8" s="154"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="163"/>
       <c r="C9" s="154"/>
       <c r="D9" s="154">
         <v>50.5</v>
       </c>
       <c r="E9" s="154" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="154"/>
       <c r="G9" s="154"/>
@@ -5376,7 +5262,7 @@
       <c r="M9" s="154"/>
       <c r="N9" s="154"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="163"/>
       <c r="C10" s="154"/>
       <c r="D10" s="154"/>
@@ -5391,16 +5277,16 @@
       <c r="M10" s="154"/>
       <c r="N10" s="154"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="163"/>
       <c r="C11" s="174" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="154">
         <v>3</v>
       </c>
       <c r="E11" s="154" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="154"/>
       <c r="G11" s="154"/>
@@ -5412,7 +5298,7 @@
       <c r="M11" s="154"/>
       <c r="N11" s="154"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="163"/>
       <c r="C12" s="154"/>
       <c r="D12" s="154">
@@ -5431,7 +5317,7 @@
       <c r="M12" s="154"/>
       <c r="N12" s="154"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="163"/>
       <c r="C13" s="154"/>
       <c r="D13" s="154"/>
@@ -5446,7 +5332,7 @@
       <c r="M13" s="154"/>
       <c r="N13" s="154"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="163"/>
       <c r="C14" s="154"/>
       <c r="D14" s="154"/>
@@ -5461,7 +5347,7 @@
       <c r="M14" s="154"/>
       <c r="N14" s="154"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="163"/>
       <c r="C15" s="154"/>
       <c r="D15" s="154"/>
@@ -5476,10 +5362,10 @@
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="163"/>
       <c r="C16" s="154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" s="154"/>
       <c r="E16" s="154"/>
@@ -5493,7 +5379,7 @@
       <c r="M16" s="154"/>
       <c r="N16" s="154"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="163"/>
       <c r="C17" s="154"/>
       <c r="D17" s="154"/>
@@ -5508,7 +5394,7 @@
       <c r="M17" s="154"/>
       <c r="N17" s="154"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="163"/>
       <c r="C18" s="154"/>
       <c r="D18" s="154">
@@ -5527,7 +5413,7 @@
       <c r="M18" s="154"/>
       <c r="N18" s="154"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="163"/>
       <c r="C19" s="154"/>
       <c r="D19" s="154">
@@ -5546,7 +5432,7 @@
       <c r="M19" s="154"/>
       <c r="N19" s="154"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="163"/>
       <c r="C20" s="154"/>
       <c r="D20" s="154"/>
@@ -5561,7 +5447,7 @@
       <c r="M20" s="154"/>
       <c r="N20" s="154"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="163"/>
       <c r="C21" s="154"/>
       <c r="D21" s="154"/>
@@ -5576,7 +5462,7 @@
       <c r="M21" s="154"/>
       <c r="N21" s="154"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="163"/>
       <c r="C22" s="154"/>
       <c r="D22" s="154"/>
@@ -5591,7 +5477,7 @@
       <c r="M22" s="154"/>
       <c r="N22" s="154"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="163"/>
       <c r="C23" s="154"/>
       <c r="D23" s="154"/>
@@ -5606,7 +5492,7 @@
       <c r="M23" s="154"/>
       <c r="N23" s="154"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="163"/>
       <c r="C24" s="154"/>
       <c r="D24" s="154"/>
@@ -5621,7 +5507,7 @@
       <c r="M24" s="154"/>
       <c r="N24" s="154"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="163"/>
       <c r="C25" s="154" t="s">
         <v>84</v>
@@ -5638,10 +5524,10 @@
       <c r="M25" s="154"/>
       <c r="N25" s="154"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="163"/>
       <c r="C26" s="154" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="154"/>
       <c r="E26" s="154"/>
@@ -5655,7 +5541,7 @@
       <c r="M26" s="154"/>
       <c r="N26" s="154"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="163"/>
       <c r="C27" s="154"/>
       <c r="D27" s="154"/>
@@ -5670,7 +5556,7 @@
       <c r="M27" s="154"/>
       <c r="N27" s="154"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="163"/>
       <c r="C28" s="154"/>
       <c r="D28" s="154"/>
@@ -5685,7 +5571,7 @@
       <c r="M28" s="154"/>
       <c r="N28" s="154"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="163"/>
       <c r="C29" s="154"/>
       <c r="D29" s="154"/>
@@ -5700,7 +5586,7 @@
       <c r="M29" s="154"/>
       <c r="N29" s="154"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="163"/>
       <c r="C30" s="154"/>
       <c r="D30" s="154"/>
@@ -5715,7 +5601,7 @@
       <c r="M30" s="154"/>
       <c r="N30" s="154"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="163"/>
       <c r="C31" s="154"/>
       <c r="D31" s="154"/>
@@ -5730,16 +5616,16 @@
       <c r="M31" s="154"/>
       <c r="N31" s="154"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="163"/>
       <c r="C32" s="154" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D32" s="154">
         <v>4080</v>
       </c>
       <c r="E32" s="154" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F32" s="154"/>
       <c r="G32" s="154"/>
@@ -5751,14 +5637,14 @@
       <c r="M32" s="154"/>
       <c r="N32" s="154"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="163"/>
       <c r="C33" s="174"/>
       <c r="D33" s="154">
         <v>3170</v>
       </c>
       <c r="E33" s="154" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33" s="154"/>
       <c r="G33" s="154"/>
@@ -5770,7 +5656,7 @@
       <c r="M33" s="154"/>
       <c r="N33" s="154"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="163"/>
       <c r="C34" s="154"/>
       <c r="D34" s="154"/>
@@ -5785,7 +5671,7 @@
       <c r="M34" s="154"/>
       <c r="N34" s="154"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="163"/>
       <c r="C35" s="154"/>
       <c r="D35" s="154"/>
@@ -5800,14 +5686,14 @@
       <c r="M35" s="154"/>
       <c r="N35" s="154"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="163"/>
       <c r="C36" s="154"/>
       <c r="D36" s="154">
         <v>68.260000000000005</v>
       </c>
       <c r="E36" s="154" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F36" s="154"/>
       <c r="G36" s="154"/>
@@ -5819,14 +5705,14 @@
       <c r="M36" s="154"/>
       <c r="N36" s="154"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="163"/>
       <c r="C37" s="154"/>
       <c r="D37" s="154">
         <v>52.8</v>
       </c>
       <c r="E37" s="154" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F37" s="154"/>
       <c r="G37" s="154"/>
@@ -5838,7 +5724,7 @@
       <c r="M37" s="154"/>
       <c r="N37" s="154"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="163"/>
       <c r="C38" s="154"/>
       <c r="D38" s="154"/>
@@ -5853,7 +5739,7 @@
       <c r="M38" s="154"/>
       <c r="N38" s="154"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="163"/>
       <c r="C39" s="154"/>
       <c r="D39" s="154"/>
@@ -5868,10 +5754,10 @@
       <c r="M39" s="154"/>
       <c r="N39" s="154"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="163"/>
       <c r="C40" s="154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" s="154"/>
       <c r="E40" s="154"/>
@@ -5885,10 +5771,10 @@
       <c r="M40" s="154"/>
       <c r="N40" s="154"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="163"/>
       <c r="C41" s="154" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" s="154"/>
       <c r="E41" s="154"/>
@@ -5902,7 +5788,7 @@
       <c r="M41" s="154"/>
       <c r="N41" s="154"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="163"/>
       <c r="C42" s="154"/>
       <c r="D42" s="154"/>
@@ -5917,7 +5803,7 @@
       <c r="M42" s="154"/>
       <c r="N42" s="154"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="163"/>
       <c r="C43" s="154"/>
       <c r="D43" s="154"/>
@@ -5932,7 +5818,7 @@
       <c r="M43" s="154"/>
       <c r="N43" s="154"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="163"/>
       <c r="C44" s="154"/>
       <c r="D44" s="154"/>
@@ -5947,7 +5833,7 @@
       <c r="M44" s="154"/>
       <c r="N44" s="154"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="163"/>
       <c r="C45" s="154"/>
       <c r="D45" s="154"/>
@@ -5962,7 +5848,7 @@
       <c r="M45" s="154"/>
       <c r="N45" s="154"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="163"/>
       <c r="C46" s="154"/>
       <c r="D46" s="154"/>
@@ -5977,7 +5863,7 @@
       <c r="M46" s="154"/>
       <c r="N46" s="154"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="163"/>
       <c r="C47" s="154"/>
       <c r="D47" s="154"/>
@@ -5992,7 +5878,7 @@
       <c r="M47" s="154"/>
       <c r="N47" s="154"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="163"/>
       <c r="C48" s="154"/>
       <c r="D48" s="154"/>
@@ -6007,7 +5893,7 @@
       <c r="M48" s="154"/>
       <c r="N48" s="154"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="163"/>
       <c r="C49" s="154"/>
       <c r="D49" s="154"/>
@@ -6022,7 +5908,7 @@
       <c r="M49" s="154"/>
       <c r="N49" s="154"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="163"/>
       <c r="C50" s="154"/>
       <c r="D50" s="154"/>
@@ -6037,7 +5923,7 @@
       <c r="M50" s="154"/>
       <c r="N50" s="154"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="163"/>
       <c r="C51" s="154"/>
       <c r="D51" s="154"/>
@@ -6052,7 +5938,7 @@
       <c r="M51" s="154"/>
       <c r="N51" s="154"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="163"/>
       <c r="C52" s="154"/>
       <c r="D52" s="154"/>
@@ -6067,7 +5953,7 @@
       <c r="M52" s="154"/>
       <c r="N52" s="154"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="163"/>
       <c r="C53" s="154"/>
       <c r="D53" s="154"/>
@@ -6082,7 +5968,7 @@
       <c r="M53" s="154"/>
       <c r="N53" s="154"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="163"/>
       <c r="C54" s="154"/>
       <c r="D54" s="154"/>
@@ -6097,7 +5983,7 @@
       <c r="M54" s="154"/>
       <c r="N54" s="154"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="163"/>
       <c r="C55" s="154"/>
       <c r="D55" s="154"/>
@@ -6112,7 +5998,7 @@
       <c r="M55" s="154"/>
       <c r="N55" s="154"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="163"/>
       <c r="C56" s="154"/>
       <c r="D56" s="154"/>
@@ -6127,7 +6013,7 @@
       <c r="M56" s="154"/>
       <c r="N56" s="154"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="163"/>
       <c r="C57" s="154"/>
       <c r="D57" s="154"/>
@@ -6142,7 +6028,7 @@
       <c r="M57" s="154"/>
       <c r="N57" s="154"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="163"/>
       <c r="C58" s="154"/>
       <c r="D58" s="154"/>
@@ -6157,7 +6043,7 @@
       <c r="M58" s="154"/>
       <c r="N58" s="154"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="163"/>
       <c r="C59" s="154"/>
       <c r="D59" s="154"/>
@@ -6172,7 +6058,7 @@
       <c r="M59" s="154"/>
       <c r="N59" s="154"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="163"/>
       <c r="C60" s="154"/>
       <c r="D60" s="154"/>
@@ -6187,7 +6073,7 @@
       <c r="M60" s="154"/>
       <c r="N60" s="154"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="163"/>
       <c r="C61" s="154"/>
       <c r="D61" s="154"/>
@@ -6202,7 +6088,7 @@
       <c r="M61" s="154"/>
       <c r="N61" s="154"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="163"/>
       <c r="C62" s="154"/>
       <c r="D62" s="154"/>
@@ -6217,7 +6103,7 @@
       <c r="M62" s="154"/>
       <c r="N62" s="154"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="163"/>
       <c r="C63" s="154"/>
       <c r="D63" s="154"/>
@@ -6232,7 +6118,7 @@
       <c r="M63" s="154"/>
       <c r="N63" s="154"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="163"/>
       <c r="C64" s="154"/>
       <c r="D64" s="154"/>
@@ -6247,7 +6133,7 @@
       <c r="M64" s="154"/>
       <c r="N64" s="154"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="163"/>
       <c r="C65" s="154"/>
       <c r="D65" s="154"/>
@@ -6262,7 +6148,7 @@
       <c r="M65" s="154"/>
       <c r="N65" s="154"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="163"/>
       <c r="C66" s="154"/>
       <c r="D66" s="154"/>
@@ -6270,7 +6156,7 @@
         <v>2</v>
       </c>
       <c r="F66" s="154" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G66" s="154"/>
       <c r="H66" s="154"/>
@@ -6281,11 +6167,11 @@
       <c r="M66" s="154"/>
       <c r="N66" s="154"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="163"/>
       <c r="C67" s="154"/>
       <c r="D67" s="174" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E67" s="154"/>
       <c r="F67" s="154"/>
@@ -6298,7 +6184,7 @@
       <c r="M67" s="154"/>
       <c r="N67" s="154"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="163"/>
       <c r="C68" s="154"/>
       <c r="D68" s="154"/>
@@ -6313,7 +6199,7 @@
       <c r="M68" s="154"/>
       <c r="N68" s="154"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="163"/>
       <c r="C69" s="154"/>
       <c r="D69" s="154"/>
@@ -6328,7 +6214,7 @@
       <c r="M69" s="154"/>
       <c r="N69" s="154"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="163"/>
       <c r="C70" s="154"/>
       <c r="D70" s="154"/>
@@ -6343,7 +6229,7 @@
       <c r="M70" s="154"/>
       <c r="N70" s="154"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="163"/>
       <c r="C71" s="154"/>
       <c r="D71" s="154"/>
@@ -6358,7 +6244,7 @@
       <c r="M71" s="154"/>
       <c r="N71" s="154"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="163"/>
       <c r="C72" s="154"/>
       <c r="D72" s="154"/>
@@ -6373,7 +6259,7 @@
       <c r="M72" s="154"/>
       <c r="N72" s="154"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="163"/>
       <c r="C73" s="154"/>
       <c r="D73" s="154"/>
@@ -6388,17 +6274,17 @@
       <c r="M73" s="154"/>
       <c r="N73" s="154"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="163"/>
       <c r="C74" s="154" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="154"/>
       <c r="E74" s="154" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="154" t="s">
         <v>144</v>
-      </c>
-      <c r="F74" s="154" t="s">
-        <v>145</v>
       </c>
       <c r="G74" s="166"/>
       <c r="H74" s="154"/>
@@ -6409,15 +6295,15 @@
       <c r="M74" s="154"/>
       <c r="N74" s="154"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="163"/>
       <c r="C75" s="154"/>
       <c r="D75" s="154"/>
       <c r="E75" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75" s="154" t="s">
         <v>146</v>
-      </c>
-      <c r="F75" s="154" t="s">
-        <v>147</v>
       </c>
       <c r="G75" s="154"/>
       <c r="H75" s="154"/>
@@ -6428,7 +6314,7 @@
       <c r="M75" s="154"/>
       <c r="N75" s="154"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="163"/>
       <c r="C76" s="154"/>
       <c r="D76" s="154"/>
@@ -6443,7 +6329,7 @@
       <c r="M76" s="154"/>
       <c r="N76" s="154"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="163"/>
       <c r="C77" s="154"/>
       <c r="D77" s="154"/>
@@ -6458,10 +6344,10 @@
       <c r="M77" s="154"/>
       <c r="N77" s="154"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="163"/>
       <c r="C78" s="154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D78" s="154"/>
       <c r="E78" s="154"/>
@@ -6475,7 +6361,7 @@
       <c r="M78" s="154"/>
       <c r="N78" s="154"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="163"/>
       <c r="C79" s="154"/>
       <c r="D79" s="154"/>
@@ -6490,7 +6376,7 @@
       <c r="M79" s="154"/>
       <c r="N79" s="154"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="163"/>
       <c r="C80" s="154"/>
       <c r="D80" s="154"/>
@@ -6505,16 +6391,16 @@
       <c r="M80" s="154"/>
       <c r="N80" s="154"/>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="163"/>
       <c r="C81" s="174" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D81" s="174">
         <v>4200</v>
       </c>
       <c r="E81" s="154" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F81" s="154"/>
       <c r="G81" s="154"/>
@@ -6526,14 +6412,14 @@
       <c r="M81" s="154"/>
       <c r="N81" s="154"/>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="163"/>
       <c r="C82" s="154"/>
       <c r="D82" s="154">
         <v>3263</v>
       </c>
       <c r="E82" s="154" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F82" s="154"/>
       <c r="G82" s="154"/>
@@ -6545,7 +6431,7 @@
       <c r="M82" s="154"/>
       <c r="N82" s="154"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="163"/>
       <c r="C83" s="154"/>
       <c r="D83" s="154"/>
@@ -6560,7 +6446,7 @@
       <c r="M83" s="154"/>
       <c r="N83" s="154"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="163"/>
       <c r="C84" s="154"/>
       <c r="D84" s="154"/>
@@ -6575,7 +6461,7 @@
       <c r="M84" s="154"/>
       <c r="N84" s="154"/>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="163"/>
       <c r="C85" s="154"/>
       <c r="D85" s="154"/>
@@ -6590,7 +6476,7 @@
       <c r="M85" s="154"/>
       <c r="N85" s="154"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="163"/>
       <c r="C86" s="154"/>
       <c r="D86" s="154"/>
@@ -6605,7 +6491,7 @@
       <c r="M86" s="154"/>
       <c r="N86" s="154"/>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="163"/>
       <c r="C87" s="154"/>
       <c r="D87" s="154"/>
@@ -6620,7 +6506,7 @@
       <c r="M87" s="154"/>
       <c r="N87" s="154"/>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="163"/>
       <c r="C88" s="154"/>
       <c r="D88" s="154"/>
@@ -6635,7 +6521,7 @@
       <c r="M88" s="154"/>
       <c r="N88" s="154"/>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="163"/>
       <c r="C89" s="154"/>
       <c r="D89" s="154"/>
@@ -6650,7 +6536,7 @@
       <c r="M89" s="154"/>
       <c r="N89" s="154"/>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="163"/>
       <c r="C90" s="154"/>
       <c r="D90" s="154"/>
@@ -6665,7 +6551,7 @@
       <c r="M90" s="154"/>
       <c r="N90" s="154"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="163"/>
       <c r="C91" s="154" t="s">
         <v>76</v>
@@ -6682,10 +6568,10 @@
       <c r="M91" s="154"/>
       <c r="N91" s="154"/>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="163"/>
       <c r="C92" s="154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D92" s="154"/>
       <c r="E92" s="154"/>
@@ -6699,7 +6585,7 @@
       <c r="M92" s="154"/>
       <c r="N92" s="154"/>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="163"/>
       <c r="C93" s="154"/>
       <c r="D93" s="154"/>
@@ -6714,7 +6600,7 @@
       <c r="M93" s="154"/>
       <c r="N93" s="154"/>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="163"/>
       <c r="C94" s="154"/>
       <c r="D94" s="154"/>
@@ -6729,7 +6615,7 @@
       <c r="M94" s="154"/>
       <c r="N94" s="154"/>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="163"/>
       <c r="C95" s="154"/>
       <c r="D95" s="154"/>
@@ -6744,7 +6630,7 @@
       <c r="M95" s="154"/>
       <c r="N95" s="154"/>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="163"/>
       <c r="C96" s="154"/>
       <c r="D96" s="154"/>
@@ -6759,7 +6645,7 @@
       <c r="M96" s="154"/>
       <c r="N96" s="154"/>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="163"/>
       <c r="C97" s="154"/>
       <c r="D97" s="154"/>
@@ -6774,7 +6660,7 @@
       <c r="M97" s="154"/>
       <c r="N97" s="154"/>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" s="163"/>
       <c r="C98" s="154"/>
       <c r="D98" s="154"/>
@@ -6789,16 +6675,16 @@
       <c r="M98" s="154"/>
       <c r="N98" s="154"/>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="163"/>
       <c r="C99" s="154" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D99" s="154">
         <v>3000</v>
       </c>
       <c r="E99" s="154" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F99" s="154"/>
       <c r="G99" s="154"/>
@@ -6810,7 +6696,7 @@
       <c r="M99" s="154"/>
       <c r="N99" s="154"/>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" s="163"/>
       <c r="C100" s="154"/>
       <c r="D100" s="154"/>
@@ -6825,7 +6711,7 @@
       <c r="M100" s="154"/>
       <c r="N100" s="154"/>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" s="163"/>
       <c r="C101" s="154"/>
       <c r="D101" s="154"/>
@@ -6840,7 +6726,7 @@
       <c r="M101" s="154"/>
       <c r="N101" s="154"/>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="163"/>
       <c r="C102" s="154"/>
       <c r="D102" s="154"/>
@@ -6855,7 +6741,7 @@
       <c r="M102" s="154"/>
       <c r="N102" s="154"/>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="163"/>
       <c r="C103" s="154"/>
       <c r="D103" s="154"/>
@@ -6870,7 +6756,7 @@
       <c r="M103" s="154"/>
       <c r="N103" s="154"/>
     </row>
-    <row r="104" spans="2:14">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" s="163"/>
       <c r="C104" s="154"/>
       <c r="D104" s="154"/>
@@ -6889,10 +6775,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_solar_csp_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_solar_csp_solar_radiation.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CBF6F5-BB8D-AD45-879E-FF49F4CB7829}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61674200-CA29-104B-8368-B33BCFC9CFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="166">
   <si>
     <t>Source</t>
   </si>
@@ -923,6 +929,9 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -933,7 +942,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1163,6 +1172,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1717,7 +1732,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2042,6 +2057,7 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="241">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3008,12 +3024,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="49" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="34"/>
+    <col min="1" max="1" width="3.42578125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="47" customFormat="1">
@@ -3189,22 +3205,22 @@
   <dimension ref="B1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD25"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="47" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="4"/>
+    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3710,15 +3726,15 @@
         <v>3</v>
       </c>
       <c r="E30" s="38">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="32" t="s">
         <v>25</v>
       </c>
       <c r="H30" s="32"/>
-      <c r="I30" s="58" t="s">
-        <v>62</v>
+      <c r="I30" s="184" t="s">
+        <v>165</v>
       </c>
       <c r="J30" s="146"/>
     </row>
@@ -4011,25 +4027,25 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="77" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="77" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="77" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="77" customWidth="1"/>
-    <col min="6" max="6" width="3.1640625" style="77" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="77" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="77" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="77" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="77" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" style="77" customWidth="1"/>
-    <col min="12" max="12" width="2.5" style="77" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="77" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="77" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="77" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="77" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="77" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="77" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="77" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="77" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="77" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="77" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="77" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" style="77" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="77" customWidth="1"/>
     <col min="14" max="14" width="3" style="77" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="77" customWidth="1"/>
-    <col min="16" max="16" width="2.6640625" style="77" customWidth="1"/>
-    <col min="17" max="17" width="44.5" style="77" customWidth="1"/>
-    <col min="18" max="16384" width="10.6640625" style="77"/>
+    <col min="15" max="15" width="10.85546875" style="77" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="77" customWidth="1"/>
+    <col min="17" max="17" width="44.42578125" style="77" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17" thickBot="1"/>
@@ -4601,18 +4617,18 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="77" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="77" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="77" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="77" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="77" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" style="77" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="78" customWidth="1"/>
-    <col min="9" max="9" width="38.5" style="78" customWidth="1"/>
-    <col min="10" max="10" width="102.33203125" style="77" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="77"/>
+    <col min="1" max="1" width="3.42578125" style="77" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="77" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="77" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="77" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="78" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="78" customWidth="1"/>
+    <col min="10" max="10" width="102.28515625" style="77" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -4822,7 +4838,7 @@
       <c r="I15" s="72"/>
       <c r="J15" s="69"/>
     </row>
-    <row r="16" spans="2:10" ht="32">
+    <row r="16" spans="2:10" ht="17">
       <c r="B16" s="82"/>
       <c r="C16" s="69"/>
       <c r="D16" s="69" t="s">
@@ -4882,7 +4898,7 @@
       <c r="I19" s="70"/>
       <c r="J19" s="84"/>
     </row>
-    <row r="20" spans="2:10" ht="32">
+    <row r="20" spans="2:10" ht="17">
       <c r="B20" s="82"/>
       <c r="C20" s="68"/>
       <c r="D20" s="69" t="s">
@@ -4961,14 +4977,14 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="153" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="153" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="153" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="153" customWidth="1"/>
     <col min="3" max="3" width="16" style="153" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="153" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="153" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="153"/>
+    <col min="4" max="4" width="10.28515625" style="153" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="153" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="153"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
